--- a/public/export/thoikhoabieutruongbuoichieu.xlsx
+++ b/public/export/thoikhoabieutruongbuoichieu.xlsx
@@ -15,7 +15,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+  <si>
+    <t>Thời khóa biểu trườngTrường test tiểu học Đông Hòa</t>
+  </si>
+  <si>
+    <t>(Tháng: 11/2020Tuần: 1</t>
+  </si>
   <si>
     <t>Thứ</t>
   </si>
@@ -277,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -298,9 +304,6 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,10 +604,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BQ43"/>
+  <dimension ref="A1:BQ44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -680,11 +683,10 @@
     <col min="69" max="69" width="9.10" bestFit="true" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69">
-      <c r="A1" s="7"/>
-    </row>
     <row r="2" spans="1:69">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -729,7 +731,9 @@
       <c r="AQ2" s="2"/>
     </row>
     <row r="3" spans="1:69">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -820,223 +824,223 @@
     </row>
     <row r="5" spans="1:69">
       <c r="A5" s="3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N5" s="5"/>
       <c r="O5" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P5" s="5"/>
       <c r="Q5" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R5" s="5"/>
       <c r="S5" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="T5" s="5"/>
       <c r="U5" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="V5" s="5"/>
       <c r="W5" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="X5" s="5"/>
       <c r="Y5" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z5" s="5"/>
       <c r="AA5" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AB5" s="5"/>
       <c r="AC5" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH5" s="5"/>
       <c r="AI5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ5" s="5"/>
       <c r="AK5" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AN5" s="5"/>
       <c r="AO5" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP5" s="5"/>
       <c r="AQ5" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:69">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AB6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AD6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AM6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ6" s="5"/>
     </row>
     <row r="7" spans="1:69">
       <c r="A7" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="6">
         <v>1</v>
@@ -1060,38 +1064,38 @@
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="X7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="Z7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="AA7" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="AB7" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC7" s="5"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AI7" s="5"/>
       <c r="AJ7" s="5"/>
@@ -1127,38 +1131,38 @@
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="V8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="X8" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB8" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC8" s="5"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI8" s="5"/>
       <c r="AJ8" s="5"/>
@@ -1194,38 +1198,38 @@
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="W9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="V9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="W9" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="X9" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB9" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC9" s="5"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AH9" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
@@ -1261,38 +1265,38 @@
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB10" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC10" s="5"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AH10" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI10" s="5"/>
       <c r="AJ10" s="5"/>
@@ -1328,38 +1332,38 @@
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB11" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC11" s="5"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AH11" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI11" s="5"/>
       <c r="AJ11" s="5"/>
@@ -1373,7 +1377,7 @@
     </row>
     <row r="12" spans="1:69">
       <c r="A12" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B12" s="6">
         <v>1</v>
@@ -1397,38 +1401,38 @@
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB12" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC12" s="5"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AH12" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI12" s="5"/>
       <c r="AJ12" s="5"/>
@@ -1464,38 +1468,38 @@
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB13" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC13" s="5"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AH13" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AI13" s="5"/>
       <c r="AJ13" s="5"/>
@@ -1531,38 +1535,38 @@
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="V14" s="5" t="s">
-        <v>34</v>
-      </c>
       <c r="W14" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB14" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC14" s="5"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AH14" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI14" s="5"/>
       <c r="AJ14" s="5"/>
@@ -1598,38 +1602,38 @@
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="W15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="X15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z15" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA15" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="AB15" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC15" s="5"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AH15" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI15" s="5"/>
       <c r="AJ15" s="5"/>
@@ -1665,38 +1669,38 @@
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AB16" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC16" s="5"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
       <c r="AG16" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI16" s="5"/>
       <c r="AJ16" s="5"/>
@@ -1710,7 +1714,7 @@
     </row>
     <row r="17" spans="1:69">
       <c r="A17" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -1734,38 +1738,38 @@
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB17" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC17" s="5"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
       <c r="AG17" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH17" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI17" s="5"/>
       <c r="AJ17" s="5"/>
@@ -1801,38 +1805,38 @@
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB18" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC18" s="5"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
       <c r="AG18" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH18" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI18" s="5"/>
       <c r="AJ18" s="5"/>
@@ -1868,38 +1872,38 @@
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="V19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="V19" s="5" t="s">
+      <c r="W19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="W19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="X19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA19" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="AB19" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
       <c r="AG19" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AH19" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5"/>
@@ -1935,38 +1939,38 @@
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="W20" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="X20" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AB20" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC20" s="5"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
       <c r="AG20" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AH20" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI20" s="5"/>
       <c r="AJ20" s="5"/>
@@ -2002,22 +2006,22 @@
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA21" s="5"/>
       <c r="AB21" s="5"/>
@@ -2026,10 +2030,10 @@
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
       <c r="AG21" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AH21" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI21" s="5"/>
       <c r="AJ21" s="5"/>
@@ -2043,7 +2047,7 @@
     </row>
     <row r="22" spans="1:69">
       <c r="A22" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B22" s="6">
         <v>1</v>
@@ -2067,38 +2071,38 @@
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB22" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC22" s="5"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
       <c r="AG22" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH22" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI22" s="5"/>
       <c r="AJ22" s="5"/>
@@ -2134,38 +2138,38 @@
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="V23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="W23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="W23" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="X23" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB23" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC23" s="5"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
       <c r="AG23" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AH23" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI23" s="5"/>
       <c r="AJ23" s="5"/>
@@ -2201,38 +2205,38 @@
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="AB24" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC24" s="5"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
       <c r="AG24" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AH24" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI24" s="5"/>
       <c r="AJ24" s="5"/>
@@ -2268,38 +2272,38 @@
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="AB25" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC25" s="5"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
       <c r="AG25" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
@@ -2335,22 +2339,22 @@
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA26" s="5"/>
       <c r="AB26" s="5"/>
@@ -2359,10 +2363,10 @@
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
       <c r="AG26" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AH26" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI26" s="5"/>
       <c r="AJ26" s="5"/>
@@ -2376,7 +2380,7 @@
     </row>
     <row r="27" spans="1:69">
       <c r="A27" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" s="6">
         <v>1</v>
@@ -2400,38 +2404,38 @@
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB27" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC27" s="5"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
       <c r="AG27" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AH27" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI27" s="5"/>
       <c r="AJ27" s="5"/>
@@ -2467,38 +2471,38 @@
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC28" s="5"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
       <c r="AG28" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
@@ -2534,38 +2538,38 @@
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="V29" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W29" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="X29" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y29" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Z29" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA29" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AB29" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC29" s="5"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
       <c r="AG29" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH29" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
@@ -2601,38 +2605,38 @@
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V30" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W30" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X30" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y30" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Z30" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA30" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AB30" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AC30" s="5"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
       <c r="AG30" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AH30" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
@@ -2668,22 +2672,22 @@
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="V31" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="W31" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Y31" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Z31" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AA31" s="5"/>
       <c r="AB31" s="5"/>
@@ -2705,7 +2709,7 @@
     </row>
     <row r="32" spans="1:69">
       <c r="A32" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B32" s="6">
         <v>1</v>
@@ -2940,14 +2944,14 @@
       <c r="AP36" s="5"/>
       <c r="AQ36" s="5"/>
     </row>
-    <row r="42" spans="1:69">
-      <c r="AN42" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
     <row r="43" spans="1:69">
       <c r="AN43" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:69">
+      <c r="AN44" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2988,11 +2992,10 @@
     <mergeCell ref="AQ22:AQ26"/>
     <mergeCell ref="AQ27:AQ31"/>
     <mergeCell ref="AQ32:AQ36"/>
-    <mergeCell ref="AN42:AQ42"/>
     <mergeCell ref="AN43:AQ43"/>
+    <mergeCell ref="AN44:AQ44"/>
     <mergeCell ref="A2:AQ2"/>
     <mergeCell ref="A3:AQ3"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.15748031496063" right="0.15748031496063" top="0.15748031496063" bottom="0.15748031496063" header="0.315" footer="0.315"/>
